--- a/testDataSets/roggensack_EPSL_CN.xlsx
+++ b/testDataSets/roggensack_EPSL_CN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiacovin/Dropbox/Research/__Manuscripts in Progress/__ENKI/__TheCode/MagmaSatPlus/testDataSets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiacovin/Dropbox/Research/__Manuscripts in Progress/__ENKI/__TheCode/VESIcal/testDataSets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6170C167-3010-D148-8A78-2FBD6D1884B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83786B56-C541-594D-8B98-60E902A06313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="1540" windowWidth="38880" windowHeight="22940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12700" yWindow="820" windowWidth="38880" windowHeight="22940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,8 @@
     <t>Ref</t>
   </si>
   <si>
-    <t>Roggensack, 2001, EPSL, v.187, 221-237</t>
+    <t>Roggensack, 2001, Sizing up crystals and their melt inclusions: a new approach
+to crystallization studies. EPSL, v.187, 221-237</t>
   </si>
 </sst>
 </file>
@@ -183,11 +184,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,7 +532,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,7 +639,7 @@
       <c r="Q2">
         <v>479</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
